--- a/frontend-cemos/public/assets/content/direito/8-cnudm/script/fc15.xlsx
+++ b/frontend-cemos/public/assets/content/direito/8-cnudm/script/fc15.xlsx
@@ -473,23 +473,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Qual é a obrigação fundamental dos Estados Partes em caso de controvérsia sobre a Convenção?</t>
+          <t>Qual é a obrigação fundamental dos Estados Partes relativa à solução de controvérsias na Convenção?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Solucioná-la por meios pacíficos, conforme a Carta das Nações Unidas.</t>
+          <t>Devem solucionar qualquer controvérsia por meios pacíficos, conforme o artigo 279.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Pág 76</t>
+          <t>Pág. 76</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XV - Solução de Controvérsias</t>
         </is>
       </c>
     </row>
@@ -501,23 +501,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Os Estados Partes podem escolher seus próprios meios pacíficos para resolver uma controvérsia?</t>
+          <t>A Convenção limita o direito das partes de escolherem outros meios pacíficos para solucionar controvérsias?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sim, têm o direito de acordar a solução por quaisquer meios pacíficos de sua própria escolha a qualquer momento.</t>
+          <t>Não, conforme o artigo 280, nada prejudica o direito de acordarem a solução por qualquer meio pacífico de sua escolha.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Pág 76</t>
+          <t>Pág. 76</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XV - Solução de Controvérsias</t>
         </is>
       </c>
     </row>
@@ -529,23 +529,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>O que acontece se os meios escolhidos pelas partes não resolverem a controvérsia e não houver exclusão de outros procedimentos?</t>
+          <t>Quando se aplicam os procedimentos estabelecidos na Parte XV da Convenção?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Aplicam-se os procedimentos estabelecidos na Parte XV da Convenção.</t>
+          <t>Apenas se não for alcançada solução por meio pacífico escolhido pelas partes e o acordo não excluir outros procedimentos, conforme o artigo 281, parágrafo 1º.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Pág 76</t>
+          <t>Pág. 76</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XV - Solução de Controvérsias</t>
         </is>
       </c>
     </row>
@@ -557,23 +557,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>O que as partes devem fazer imediatamente quando surge uma controvérsia relativa à Convenção?</t>
+          <t>O que ocorre se um acordo geral ou bilateral previr um procedimento conducente a uma decisão obrigatória?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Devem proceder sem demora a uma troca de opiniões para solucioná-la por negociação ou outros meios.</t>
+          <t>Esse procedimento será aplicado em lugar do previsto na Parte XV, salvo acordo em contrário, nos termos do artigo 282.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pág 77</t>
+          <t>Pág. 77</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XV - Solução de Controvérsias</t>
         </is>
       </c>
     </row>
@@ -585,23 +585,23 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>O procedimento de conciliação previsto no Artigo 284 é obrigatório para iniciar?</t>
+          <t>Qual é a obrigação imediata das partes quando surge uma controvérsia relativa à Convenção?</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Não, uma parte convida a outra; o procedimento aplica-se apenas se o convite for aceito.</t>
+          <t>Devem proceder sem demora a uma troca de opiniões para solucioná-la por negociação ou outros meios pacíficos, conforme o artigo 283, parágrafo 1º.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Pág 77</t>
+          <t>Pág. 77</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XV - Solução de Controvérsias</t>
         </is>
       </c>
     </row>
@@ -613,23 +613,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Quais são os quatro meios de solução de controvérsias que um Estado pode escolher por declaração escrita (Art. 287)?</t>
+          <t>O que acontece com o procedimento de conciliação se o convite para tal não for aceito?</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Tribunal Internacional do Direito do Mar, Corte Internacional de Justiça, tribunal arbitral (Anexo VII) ou tribunal arbitral especial (Anexo VIII).</t>
+          <t>O procedimento de conciliação deve ser considerado terminado, conforme o artigo 284, parágrafo 3º.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Pág 77</t>
+          <t>Pág. 77</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XV - Solução de Controvérsias</t>
         </is>
       </c>
     </row>
@@ -641,23 +641,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Se as partes em uma controvérsia não tiverem aceito o mesmo procedimento de solução, qual meio será aplicado?</t>
+          <t>Se as partes não tiverem aceito o mesmo procedimento para solução de controvérsias, qual será aplicado?</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A controvérsia só poderá ser submetida a arbitragem (Anexo VII), salvo acordo em contrário.</t>
+          <t>A controvérsia só poderá ser submetida a arbitragem (Anexo VII), salvo acordo em contrário, conforme o artigo 287, parágrafo 5º.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Pág 78</t>
+          <t>Pág. 78</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XV - Solução de Controvérsias</t>
         </is>
       </c>
     </row>
@@ -669,23 +669,23 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Qual é a função dos peritos em questões científicas ou técnicas em uma corte ou tribunal?</t>
+          <t>Quais são os quatro meios de solução que um Estado pode escolher via declaração escrita?</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Participar na corte ou tribunal a pedido ou por iniciativa própria, mas sem direito a voto.</t>
+          <t>Tribunal Internacional do Direito do Mar, CIJ, tribunal arbitral (Anexo VII) ou tribunal arbitral especial (Anexo VIII), conforme o artigo 287, parágrafo 1º.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Pág 78</t>
+          <t>Pág. 78</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XV - Solução de Controvérsias</t>
         </is>
       </c>
     </row>
@@ -697,23 +697,23 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Para que servem as medidas provisórias decretadas por uma corte ou tribunal?</t>
+          <t>Quem resolve a dúvida caso haja contestação sobre a jurisdição de uma corte ou tribunal?</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Para preservar os direitos respectivos das partes ou impedir danos graves ao meio marinho até decisão definitiva.</t>
+          <t>A questão será resolvida por decisão dessa própria corte ou tribunal, nos termos do artigo 288, parágrafo 4º.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Pág 78</t>
+          <t>Pág. 78</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XV - Solução de Controvérsias</t>
         </is>
       </c>
     </row>
@@ -725,23 +725,23 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Quem tem legitimidade para fazer o pedido de pronta libertação de uma embarcação detida?</t>
+          <t>Qual é a finalidade das medidas provisórias decretadas por uma corte ou tribunal?</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Apenas o Estado de bandeira da embarcação ou quem agir em seu nome.</t>
+          <t>Preservar os direitos das partes ou impedir danos graves ao meio marinho, conforme o artigo 290, parágrafo 1º.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Pág 79</t>
+          <t>Pág. 79</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XV - Solução de Controvérsias</t>
         </is>
       </c>
     </row>
@@ -753,23 +753,23 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Qual é o direito aplicável pelas cortes ou tribunais com jurisdição na Seção 2?</t>
+          <t>Quem possui legitimidade para fazer o pedido de libertação de uma embarcação apresada?</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>A presente Convenção e outras normas de direito internacional que não sejam incompatíveis com ela.</t>
+          <t>Apenas o Estado de bandeira da embarcação ou quem atue em seu nome, conforme o artigo 292, parágrafo 2º.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Pág 79</t>
+          <t>Pág. 79</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XV - Solução de Controvérsias</t>
         </is>
       </c>
     </row>
@@ -781,23 +781,23 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Qual é o pré-requisito antes de submeter uma controvérsia aos procedimentos da Seção 2 (Art. 295)?</t>
+          <t>Qual o direito aplicável pela corte ou tribunal ao exercer jurisdição nos termos da Convenção?</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>O esgotamento dos recursos internos, de conformidade com o direito internacional.</t>
+          <t>Aplicará a presente Convenção e outras normas de direito internacional compatíveis, conforme o artigo 293, parágrafo 1º.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Pág 79</t>
+          <t>Pág. 79</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XV - Solução de Controvérsias</t>
         </is>
       </c>
     </row>
@@ -809,23 +809,23 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>As decisões proferidas por uma corte ou tribunal nos termos da Seção 2 têm força obrigatória?</t>
+          <t>Qual é a condição prévia para submeter uma controvérsia aos procedimentos da seção 2?</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Sim, são definitivas e devem ser cumpridas por todas as partes na controvérsia.</t>
+          <t>Devem ter sido esgotados os recursos internos de conformidade com o direito internacional, conforme o artigo 295.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Pág 80</t>
+          <t>Pág. 80</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XV - Solução de Controvérsias</t>
         </is>
       </c>
     </row>
@@ -837,23 +837,23 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Um Estado costeiro é obrigado a aceitar a solução compulsória de controvérsias sobre seus direitos soberanos de pesca na ZEE?</t>
+          <t>Qual é a eficácia das decisões proferidas por uma corte ou tribunal sob esta seção?</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Não, não é obrigado a submeter controvérsias relativas a seus direitos soberanos ou poderes discricionários de pesca.</t>
+          <t>A decisão será definitiva e obrigatória para as partes na controvérsia, conforme o artigo 296, parágrafos 1º e 2º.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Pág 80</t>
+          <t>Pág. 80</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XV - Solução de Controvérsias</t>
         </is>
       </c>
     </row>
@@ -865,23 +865,23 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Em que casos de investigação científica o Estado costeiro não é obrigado a aceitar procedimentos de solução de controvérsias?</t>
+          <t>Em que caso o Estado costeiro não é obrigado a aceitar procedimentos de solução obrigatória sobre investigação científica?</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Quando envolve exercício de poder discricionário para autorizar pesquisa ou decisão de suspender/cessar projeto.</t>
+          <t>Quando envolver o exercício de poder discricionário para recusar consentimento ou suspender projetos, conforme o artigo 297, parágrafo 2º(a).</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Pág 80</t>
+          <t>Pág. 80</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XV - Solução de Controvérsias</t>
         </is>
       </c>
     </row>
@@ -893,23 +893,23 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Um Estado pode declarar que não aceita procedimentos obrigatórios para delimitação de fronteiras marítimas?</t>
+          <t>O Estado costeiro é obrigado a submeter à solução compulsória controvérsias sobre seus direitos soberanos de pesca?</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Sim, é uma exceção facultativa permitida pelo Artigo 298.</t>
+          <t>Não, especialmente quanto aos seus poderes discricionários de fixar a captura permissível, conforme o artigo 297, parágrafo 3º(a).</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Pág 81</t>
+          <t>Pág. 81</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XV - Solução de Controvérsias</t>
         </is>
       </c>
     </row>
@@ -921,23 +921,23 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>As controvérsias relativas a atividades militares podem ser excluídas dos procedimentos obrigatórios?</t>
+          <t>Que tipo de controvérsias um Estado pode declarar que não aceita submeter aos procedimentos da seção 2?</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Sim, podem ser excluídas mediante declaração escrita do Estado.</t>
+          <t>Controvérsias sobre delimitação de zonas marítimas, atividades militares ou questões no Conselho de Segurança, conforme o artigo 298, parágrafo 1º.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Pág 81</t>
+          <t>Pág. 81</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XV - Solução de Controvérsias</t>
         </is>
       </c>
     </row>
@@ -949,23 +949,23 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>A comissão de conciliação pode substituir o poder discricionário do Estado costeiro em questões de pesca?</t>
+          <t>O que ocorre se as negociações baseadas no relatório da comissão de conciliação sobre delimitação não resultarem em acordo?</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Não, em nenhum caso a comissão de conciliação substituirá o poder discricionário do Estado costeiro.</t>
+          <t>As partes deverão submeter a questão a um dos procedimentos da seção 2 por mútuo consentimento, conforme o artigo 298, parágrafo 1º(a)(ii).</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Pág 81</t>
+          <t>Pág. 81</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XV - Solução de Controvérsias</t>
         </is>
       </c>
     </row>
@@ -977,23 +977,23 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>O que exige o Artigo 300 quanto ao cumprimento das obrigações e exercício de direitos na Convenção?</t>
+          <t>Como devem os Estados Partes exercer os direitos e liberdades reconhecidos na Convenção?</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Devem ser cumpridos de boa fé e exercidos de modo a não constituir abuso de direito.</t>
+          <t>Devem exercê-los de modo a não constituir abuso de direito, conforme o artigo 300.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Pág 82</t>
+          <t>Pág. 82</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XVI - Disposições Gerais</t>
         </is>
       </c>
     </row>
@@ -1005,23 +1005,23 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Qual é o dever dos Estados em relação a objetos de caráter arqueológico e histórico achados no mar?</t>
+          <t>O que a Convenção estabelece sobre a utilização do mar e o uso da força?</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Têm o dever de proteger tais objetos e cooperar para esse fim.</t>
+          <t>Os Estados devem abster-se de ameaça ou uso da força contra integridade territorial ou independência política, conforme o artigo 301.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Pág 82</t>
+          <t>Pág. 82</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XVI - Disposições Gerais</t>
         </is>
       </c>
     </row>
@@ -1033,23 +1033,23 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>A Convenção obriga um Estado a fornecer informações que prejudiquem sua segurança essencial?</t>
+          <t>Um Estado pode retirar a declaração de exceção aos procedimentos de controvérsia?</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Não, nada na Convenção exige o fornecimento de informações contrárias aos interesses essenciais de segurança.</t>
+          <t>Sim, poderá retirá-la em qualquer momento, conforme o artigo 298, parágrafo 2º.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Pág 82</t>
+          <t>Pág. 82</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XV - Solução de Controvérsias</t>
         </is>
       </c>
     </row>
@@ -1061,23 +1061,23 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>A partir de que momento a Convenção entra em vigor?</t>
+          <t>As disposições sobre responsabilidade por danos na Convenção afetam normas vigentes?</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>12 meses após a data de depósito do sexagésimo instrumento de ratificação ou adesão.</t>
+          <t>Não, elas não prejudicam a aplicação das normas vigentes de direito internacional, conforme o artigo 304.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Pág 83</t>
+          <t>Pág. 83</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XVI - Disposições Gerais</t>
         </is>
       </c>
     </row>
@@ -1089,23 +1089,23 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>As disposições da Convenção sobre responsabilidade por danos prejudicam novas normas de direito internacional?</t>
+          <t>Qual é o dever dos Estados em relação a objetos arqueológicos achados no mar?</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Não, não prejudicam a aplicação de normas vigentes nem a elaboração de novas normas de responsabilidade.</t>
+          <t>Têm o dever de protegê-los e cooperar para esse fim, conforme o artigo 303, parágrafo 1º.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Pág 83</t>
+          <t>Pág. 83</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XVI - Disposições Gerais</t>
         </is>
       </c>
     </row>
@@ -1117,23 +1117,23 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Onde devem ser depositados os instrumentos de ratificação e adesão?</t>
+          <t>Quem pode assinar a Convenção além dos Estados soberanos?</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Junto do Secretário Geral das Nações Unidas.</t>
+          <t>Entidades como a Namíbia (pelo Conselho das Nações Unidas) e Estados autônomos associados com competência específica, conforme o artigo 305.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Pág 83</t>
+          <t>Pág. 83</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XVII - Disposições Finais</t>
         </is>
       </c>
     </row>
@@ -1145,23 +1145,23 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>A Convenção admite reservas gerais?</t>
+          <t>A Convenção admite reservas?</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Não, não admite reservas ou exceções além das expressamente autorizadas em outros artigos.</t>
+          <t>Não admite reservas ou exceções, salvo as expressamente autorizadas, conforme o artigo 309.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Pág 84</t>
+          <t>Pág. 84</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XVII - Disposições Finais</t>
         </is>
       </c>
     </row>
@@ -1173,23 +1173,23 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Qual é a relação desta Convenção com as Convenções de Genebra de 1958?</t>
+          <t>Quando a Convenção entra em vigor?</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Esta Convenção prevalece sobre as Convenções de Genebra de 1958 nas relações entre os Estados Partes.</t>
+          <t>12 meses após a data de depósito do sexagésimo instrumento de ratificação ou adesão, conforme o artigo 308, parágrafo 1º.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Pág 84</t>
+          <t>Pág. 84</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XVII - Disposições Finais</t>
         </is>
       </c>
     </row>
@@ -1201,23 +1201,23 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Os Estados Partes podem emendar o princípio do patrimônio comum da humanidade (Art. 136)?</t>
+          <t>Como se aplicam as normas da Comissão Preparatória antes da aprovação formal?</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Não, convêm que não podem ser feitas emendas a esse princípio e não serão partes em acordos que o derroguem.</t>
+          <t>Aplicam-se provisoriamente até sua aprovação formal pela Autoridade, conforme o artigo 308, parágrafo 4º.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Pág 84</t>
+          <t>Pág. 84</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XVII - Disposições Finais</t>
         </is>
       </c>
     </row>
@@ -1229,23 +1229,23 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>O que acontece com uma emenda proposta por procedimento simplificado se um Estado Parte apresentar objeção?</t>
+          <t>Qual a finalidade permitida para declarações feitas ao assinar a Convenção?</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>A emenda será considerada rejeitada.</t>
+          <t>Harmonizar leis e regulamentos, desde que não visem excluir ou modificar o efeito jurídico da Convenção, conforme o artigo 310.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Pág 85</t>
+          <t>Pág. 85</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XVII - Disposições Finais</t>
         </is>
       </c>
     </row>
@@ -1257,23 +1257,23 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Emendas relativas exclusivamente a atividades na Área precisam de aprovação de quais órgãos?</t>
+          <t>Qual a relação desta Convenção com as Convenções de Genebra de 1958?</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Da Assembléia da Autoridade, após aprovação pelo Conselho.</t>
+          <t>A presente Convenção prevalece nas relações entre os Estados Partes, conforme o artigo 311, parágrafo 1º.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Pág 85</t>
+          <t>Pág. 85</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XVII - Disposições Finais</t>
         </is>
       </c>
     </row>
@@ -1285,23 +1285,23 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Quando entram em vigor as emendas à Convenção (regra geral)?</t>
+          <t>Qual o prazo de carência para propor emendas à Convenção?</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>30 dias após o depósito dos instrumentos de ratificação de dois terços dos Estados Partes (ou 60, o que for maior).</t>
+          <t>Decorridos 10 anos da entrada em vigor da Convenção, conforme o artigo 312, parágrafo 1º.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Pág 85</t>
+          <t>Pág. 85</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XVII - Disposições Finais</t>
         </is>
       </c>
     </row>
@@ -1313,23 +1313,23 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Quando a denúncia da Convenção por um Estado Parte produz efeito?</t>
+          <t>Quando uma emenda proposta pelo procedimento simplificado é considerada adotada?</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Um ano após a data do recebimento da notificação pelo Secretário Geral.</t>
+          <t>Se nenhum Estado Parte apresentar objeção nos 12 meses seguintes à comunicação, conforme o artigo 313, parágrafo 3º.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Pág 86</t>
+          <t>Pág. 86</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XVII - Disposições Finais</t>
         </is>
       </c>
     </row>
@@ -1341,23 +1341,23 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Quem é o depositário da Convenção?</t>
+          <t>Qual o efeito da denúncia da Convenção por um Estado Parte?</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>O Secretário Geral das Nações Unidas.</t>
+          <t>Tem efeito um ano após a notificação, mas não dispensa obrigações financeiras ou contratuais anteriores, conforme o artigo 317, parágrafos 1º e 2º.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Pág 86</t>
+          <t>Pág. 86</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XVII - Disposições Finais</t>
         </is>
       </c>
     </row>
@@ -1369,23 +1369,23 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Qual é o estatuto jurídico dos Anexos da Convenção?</t>
+          <t>Quem é o depositário da Convenção e suas emendas?</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>São parte integrante da Convenção; referências à Convenção incluem seus Anexos.</t>
+          <t>O Secretário Geral das Nações Unidas, conforme o artigo 319, parágrafo 1º.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Pág 86</t>
+          <t>Pág. 86</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Parte XV-XVI-XVII</t>
+          <t>Parte XVII - Disposições Finais</t>
         </is>
       </c>
     </row>
